--- a/dataSet/TestData.xlsx
+++ b/dataSet/TestData.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaprog\JavaProjectWD8AMOCT\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E8151-F75C-4D4C-9417-A8BE8C646363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{257D9ADD-3D20-4CFD-8A7C-E8F650369EFB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" firstSheet="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="IntSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="StringSheet" sheetId="2" r:id="rId3"/>
+    <sheet name="IntSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="Data2" r:id="rId2" sheetId="4"/>
+    <sheet name="Data" r:id="rId3" sheetId="3"/>
+    <sheet name="StringSheet" r:id="rId4" sheetId="2"/>
+    <sheet name="sampleData" r:id="rId5" sheetId="5"/>
+    <sheet name="sampleData1" r:id="rId6" sheetId="6"/>
+    <sheet name="sampleData4" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Hello1</t>
   </si>
@@ -81,12 +85,19 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>Hello10</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,17 +125,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -179,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -308,21 +319,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -339,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -391,15 +402,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -459,15 +470,74 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115C0C06-BC7F-4C97-B9F2-E408C8A8DF28}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDF6D76-CBB8-48E7-A9A9-4D8193E98CBB}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115C0C06-BC7F-4C97-B9F2-E408C8A8DF28}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -518,13 +588,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EC5CFC-B45A-4F3E-803D-C70EBE423322}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EC5CFC-B45A-4F3E-803D-C70EBE423322}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -565,6 +635,175 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>151518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="K2:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>